--- a/CorrelatedtableStudent.xlsx
+++ b/CorrelatedtableStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQL\CorrelatedSubquery_Project\CorrelatedSubquerry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0741B742-B35E-4988-9EF1-41CB97137FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A41C9-4A3B-42B1-B99E-4DD0569894F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACFC960C-35C8-48FF-8B18-F62DC93D6EAA}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +94,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E78431-E701-4E4A-BF2E-B0E09F21AB43}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,6 +603,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>